--- a/林旭诚/web接口模板.xlsx
+++ b/林旭诚/web接口模板.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>接口类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,31 +34,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>接口返回结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> selectTheme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> nextTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于交卷，成功交卷返回成绩对象，否则返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showFlaseTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int Theme_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Title&gt; titleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于根据考试主题id显示相应的错题，成功返回错题列表，否则返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web接口设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRGLController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailedInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string User_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于详细信息获取，成功返回用户详细信息对象。否则返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int User_Gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string User_realName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string User_Phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string User_Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string User_Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功：new_password   失败：password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于个人管理中修改密码功能，成功返回新密码。否则返回原本密码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string new_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrowthCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string User_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string picGrowthCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于个人管理中查看个人曲线功能，成功返回用户个人曲线图，否则返回null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功：true 失败：false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于个个管理中退出登录功能，成功返回登录界面，否则返回null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>User user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口返回结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于登录验证，验证通过返回用户对象，否则返回NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web接口设计文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRGLController</t>
+    <t>string userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true:成功 false:失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于登录验证，验证通过返回true，否则返回false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string userPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于用户注册，注册成功返回true，否则返回false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgetPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于忘记密码，更改密码成功就返回true,否则返回fasle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登录模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Title&gt; titleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean is_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于根据考试主题id显示相应的题目，成功返回题目列表，否则返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_real_as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于根据用户点击下一题，系统将根据题目id提交答案到后台匹配，成功返回boolean对象，正确返回ture,错误返回false.否则返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> end_sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             Score score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,67 +262,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CJGLController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTGlController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错题管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDetailedInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string User_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string User_Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string User_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string User_realName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int User_Gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string User_Phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string User_Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string User_Memo</t>
+    <t>DTGLController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UserDetail UserDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于详细信息获取，成功返回用户详细信息对象。否则放回NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,7 +291,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -160,7 +300,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -168,23 +315,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -192,28 +351,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -512,191 +769,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="70.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A6"/>
+  <mergeCells count="25">
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="A11:A21"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/林旭诚/web接口模板.xlsx
+++ b/林旭诚/web接口模板.xlsx
@@ -250,14 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">             Score score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CTGLController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,6 +259,14 @@
   </si>
   <si>
     <t>UserDetail UserDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -414,6 +414,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -421,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,40 +458,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -772,7 +793,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -785,13 +806,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -811,206 +832,206 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>61</v>
+      <c r="A4" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1021,11 +1042,11 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1036,105 +1057,105 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="8" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="14"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
@@ -1143,7 +1164,23 @@
       <c r="A40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="A11:A21"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="E28:E30"/>
@@ -1154,21 +1191,6 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="A11:A21"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/林旭诚/web接口模板.xlsx
+++ b/林旭诚/web接口模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>接口类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功：new_password   失败：password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于个人管理中修改密码功能，成功返回新密码。否则返回原本密码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string picGrowthCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于个人管理中查看个人曲线功能，成功返回用户个人曲线图，否则返回null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功：true 失败：false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于个个管理中退出登录功能，成功返回登录界面，否则返回null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>true:成功 false:失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于登录验证，验证通过返回true，否则返回false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,14 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;Title&gt; titleList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean is_real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于根据考试主题id显示相应的题目，成功返回题目列表，否则返回NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,15 +234,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserDetail UserDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Score score</t>
+    <t>成绩模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int User_id</t>
+  </si>
+  <si>
+    <t>用于查询用户按主题分类的成绩</t>
+  </si>
+  <si>
+    <t>int Theme_id</t>
+  </si>
+  <si>
+    <t>CJGLController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{status:"10"}</t>
+  </si>
+  <si>
+    <t>json{status:"10"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{status:"10" password:"new_password"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{status:"10" picGrowthCurve:"url"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{status:"10" User_name:"" User_Gender:"" icon:"" User_realName:"" User_Phone:"" User_Email:"" User_Memo:""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{status:"10" is_real:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{status:"10" score:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{status:"10" title:"" answer_1:"" answer_2:"" answer_3:"" answer_4:"" answer_5:"" answer_6:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json{status:"10" score:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -440,6 +464,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -447,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,6 +509,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,23 +533,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -793,7 +859,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -806,13 +872,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -832,17 +898,17 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>59</v>
+      <c r="A4" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -850,64 +916,64 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -923,248 +989,283 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="D23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="D25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="31">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="D5:D6"/>
@@ -1191,6 +1292,11 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
